--- a/scripts/maxRange/testrecord5Results.xlsx
+++ b/scripts/maxRange/testrecord5Results.xlsx
@@ -229,7 +229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -252,11 +252,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -267,15 +276,17 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +410,10 @@
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -418,11 +429,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T13" totalsRowCount="1" headerRowDxfId="35">
-  <autoFilter ref="A1:T13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:T13" totalsRowCount="1" headerRowDxfId="36">
+  <autoFilter ref="A1:T12"/>
   <tableColumns count="20">
     <tableColumn id="1" name="name"/>
-    <tableColumn id="2" name="zStd" dataDxfId="36" totalsRowDxfId="16"/>
+    <tableColumn id="2" name="zStd" dataDxfId="35" totalsRowDxfId="16"/>
     <tableColumn id="3" name="fillRateWithStdBelow30" dataDxfId="34" totalsRowDxfId="15"/>
     <tableColumn id="4" name="meanStdBelow30" dataDxfId="33" totalsRowDxfId="14"/>
     <tableColumn id="5" name="fillRateWithStdBelow70" dataDxfId="32" totalsRowDxfId="13"/>
@@ -714,7 +725,7 @@
   <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -857,10 +868,10 @@
       <c r="R2" s="1">
         <v>2.9616598600546022</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T2" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1036,7 +1047,7 @@
         <v>1.2136920754745864</v>
       </c>
       <c r="S5" s="1"/>
-      <c r="T5" s="10" t="s">
+      <c r="T5" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1212,7 +1223,7 @@
         <v>1.5963519014124754</v>
       </c>
       <c r="S8" s="1"/>
-      <c r="T8" s="10" t="s">
+      <c r="T8" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1271,10 +1282,10 @@
       <c r="R9" s="1">
         <v>5.6754120035362758</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T9" s="10" t="s">
+      <c r="T9" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1391,10 +1402,10 @@
       <c r="R11" s="1">
         <v>2.8911066220032247</v>
       </c>
-      <c r="S11" s="9" t="s">
+      <c r="S11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="10" t="s">
+      <c r="T11" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1478,20 +1489,25 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
     </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>365</v>
+      </c>
+    </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7" t="s">
+      <c r="J16" s="6"/>
+      <c r="K16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T16" s="6" t="s">
+      <c r="T16" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1499,82 +1515,86 @@
       <c r="A17" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="7"/>
-      <c r="T17" s="6"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="10"/>
+      <c r="T17" s="9"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="7"/>
-      <c r="T18" s="6"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="10"/>
+      <c r="T18" s="9"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="7"/>
-      <c r="T19" s="6"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="10"/>
+      <c r="T19" s="9"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="7"/>
-      <c r="T20" s="6"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="10"/>
+      <c r="T20" s="9"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="7"/>
-      <c r="T21" s="6"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="10"/>
+      <c r="T21" s="9"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T22" s="6"/>
+      <c r="T22" s="9"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T23" s="6"/>
+      <c r="T23" s="9"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T24" s="6"/>
+      <c r="T24" s="9"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="T25" s="6"/>
+      <c r="T25" s="9"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="11">
         <v>264.5575713900173</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="11">
         <v>8.0385852090032149E-3</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="11">
         <v>18.354736355514895</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="11">
         <v>2.4919614147909969E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="11">
         <v>38.975546243960707</v>
       </c>
-      <c r="G27" s="1">
+      <c r="G27" s="11">
         <v>0.32853697749196142</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="11">
         <v>0.57596463022508038</v>
       </c>
-      <c r="M27" s="1">
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11">
         <v>3601.6430687299035</v>
       </c>
       <c r="N27" s="1">
@@ -1585,28 +1605,32 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="12">
         <v>49.963651691797949</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="12">
         <v>0.51768488745980712</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="12">
         <v>14.447939647766875</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="12">
         <v>0.77572347266881025</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="12">
         <v>25.4919202613839</v>
       </c>
-      <c r="G28" s="1">
+      <c r="G28" s="12">
         <v>0.89369774919614153</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H28" s="12">
         <v>0.96628617363344049</v>
       </c>
-      <c r="M28" s="1">
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12">
         <v>3563.4481129421229</v>
       </c>
       <c r="N28" s="1">
@@ -1617,28 +1641,32 @@
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="12">
         <v>23.876225494032713</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="12">
         <v>0.930064308681672</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="12">
         <v>23.28968016997187</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="12">
         <v>1</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="12">
         <v>23.876225494032713</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="12">
         <v>0.81091639871382637</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H29" s="12">
         <v>0.98974276527331184</v>
       </c>
-      <c r="M29" s="1">
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12">
         <v>3555.804642282957</v>
       </c>
       <c r="N29" s="1">
@@ -1649,28 +1677,32 @@
       <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="12">
         <v>12.676709426045576</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="12">
         <v>0.99839228295819937</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="12">
         <v>12.646367119571135</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="12">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="12">
         <v>12.676709426045576</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G30" s="12">
         <v>0.97556270096463027</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H30" s="12">
         <v>0.99969453376205786</v>
       </c>
-      <c r="M30" s="1">
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12">
         <v>3568.8618749999996</v>
       </c>
       <c r="N30" s="1">
@@ -1681,28 +1713,32 @@
       <c r="A31" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="12">
         <v>54.770091308959188</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="12">
         <v>0.47106109324758844</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="12">
         <v>13.623138238466305</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="12">
         <v>0.729903536977492</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="12">
         <v>25.205197437467127</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G31" s="12">
         <v>0.89358520900321547</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="12">
         <v>0.96696141479099673</v>
       </c>
-      <c r="M31" s="1">
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12">
         <v>3568.7468890675232</v>
       </c>
       <c r="N31" s="1">
@@ -1713,28 +1749,32 @@
       <c r="A32" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="12">
         <v>24.6442152398999</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="12">
         <v>0.86897106109324762</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="12">
         <v>23.520671725448199</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="12">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="12">
         <v>24.6442152398999</v>
       </c>
-      <c r="G32" s="1">
+      <c r="G32" s="12">
         <v>0.79625401929260453</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H32" s="12">
         <v>0.98709003215434088</v>
       </c>
-      <c r="M32" s="1">
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12">
         <v>3557.2277954180054</v>
       </c>
       <c r="N32" s="1">
@@ -1745,28 +1785,32 @@
       <c r="A33" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="12">
         <v>11.994754918173758</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="12">
         <v>0.99356913183279738</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="12">
         <v>11.830090975536518</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="12">
         <v>1</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="12">
         <v>11.994754918173758</v>
       </c>
-      <c r="G33" s="1">
+      <c r="G33" s="12">
         <v>0.98130225080385847</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H33" s="12">
         <v>0.99954983922829577</v>
       </c>
-      <c r="M33" s="1">
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12">
         <v>3572.6888122990363</v>
       </c>
       <c r="N33" s="1">
@@ -1777,28 +1821,32 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="11">
         <v>40.17712732248873</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="11">
         <v>0.11254019292604502</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="11">
         <v>25.13120767903305</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="11">
         <v>0.97909967845659163</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="11">
         <v>39.302479456519926</v>
       </c>
-      <c r="G34" s="1">
+      <c r="G34" s="11">
         <v>0.62678456591639875</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H34" s="11">
         <v>0.93062700964630229</v>
       </c>
-      <c r="M34" s="1">
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11">
         <v>3551.4467443729891</v>
       </c>
       <c r="N34" s="1">
@@ -1809,28 +1857,32 @@
       <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="11">
         <v>475.95940889359645</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="11">
         <v>3.2154340836012861E-3</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="11">
         <v>25.725165722117037</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="11">
         <v>3.6977491961414789E-2</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="11">
         <v>43.509884418809854</v>
       </c>
-      <c r="G35" s="1">
+      <c r="G35" s="11">
         <v>0.12397106109324758</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H35" s="11">
         <v>0.26221864951768487</v>
       </c>
-      <c r="M35" s="1">
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11">
         <v>3532.4980687299039</v>
       </c>
       <c r="N35" s="1">
@@ -1841,28 +1893,32 @@
       <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="12">
         <v>62.519679901158703</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="12">
         <v>0.29823151125401931</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="12">
         <v>21.564933741108423</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="12">
         <v>0.64710610932475887</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="12">
         <v>37.00110073337359</v>
       </c>
-      <c r="G36" s="1">
+      <c r="G36" s="12">
         <v>0.77112540192926049</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H36" s="12">
         <v>0.94686495176848873</v>
       </c>
-      <c r="M36" s="1">
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12">
         <v>3574.8417946141471</v>
       </c>
       <c r="N36" s="1">
@@ -1873,28 +1929,32 @@
       <c r="A37" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="11">
         <v>105.95403555238906</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="11">
         <v>0.10128617363344052</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="11">
         <v>18.694603263633773</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="11">
         <v>0.35450160771704181</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="11">
         <v>41.327535156303284</v>
       </c>
-      <c r="G37" s="1">
+      <c r="G37" s="11">
         <v>0.63143086816720262</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H37" s="11">
         <v>0.87736334405144689</v>
       </c>
-      <c r="M37" s="1">
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11">
         <v>3596.219686495177</v>
       </c>
       <c r="N37" s="1">
@@ -1908,7 +1968,7 @@
     <mergeCell ref="K16:K21"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B12">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="20">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1922,7 +1982,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C12">
-    <cfRule type="dataBar" priority="16">
+    <cfRule type="dataBar" priority="19">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1936,7 +1996,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D12">
-    <cfRule type="dataBar" priority="15">
+    <cfRule type="dataBar" priority="18">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1950,7 +2010,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E12">
-    <cfRule type="dataBar" priority="14">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1964,7 +2024,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1978,7 +2038,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G12">
-    <cfRule type="dataBar" priority="12">
+    <cfRule type="dataBar" priority="15">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1992,7 +2052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:H12">
-    <cfRule type="dataBar" priority="11">
+    <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2006,7 +2066,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:I12">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2020,7 +2080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J12">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="12">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2034,7 +2094,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K12">
-    <cfRule type="dataBar" priority="8">
+    <cfRule type="dataBar" priority="11">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2048,7 +2108,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L12">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2062,7 +2122,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M12">
-    <cfRule type="dataBar" priority="6">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2076,7 +2136,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N12">
-    <cfRule type="dataBar" priority="5">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2090,7 +2150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O12">
-    <cfRule type="dataBar" priority="4">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2104,7 +2164,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P12">
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2118,7 +2178,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q12">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="5">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2132,6 +2192,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R2:R12">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{ECCAD9E9-5B2F-4FC9-A637-5C9273E8AED9}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:M37">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -2140,7 +2214,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ECCAD9E9-5B2F-4FC9-A637-5C9273E8AED9}</x14:id>
+          <x14:id>{D82F4C58-3EDA-406B-93F8-D82C834B6C12}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2373,6 +2447,19 @@
           </x14:cfRule>
           <xm:sqref>R2:R12</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D82F4C58-3EDA-406B-93F8-D82C834B6C12}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B27:M37</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
